--- a/biology/Botanique/Proboscidea_althaeifolia/Proboscidea_althaeifolia.xlsx
+++ b/biology/Botanique/Proboscidea_althaeifolia/Proboscidea_althaeifolia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Proboscidea althaeifolia est une espèce végétale de la famille des Pedaliaceae selon la classification classique, ou des Martyniaceae selon la classification phylogénétique.  
 </t>
@@ -513,12 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-Cette plante aux tiges rampantes ne s'élève guère au-dessus de 30 cm de hauteur, mais les tiges peuvent courir sur 90 cm au sol[1]. Les feuilles, aux longs pétioles, ont un limbe mesurant entre 2 et 7,5 cm de long. Elles sont charnues, arrondies, et leur marge peut être entière, festonnée ou lobée.
-Appareil reproducteur
-La floraison a lieu entre juin et septembre. 
-L'inflorescence est une grappe de quelques fleurs jaune-verdâtre disposées en symétrie bilatérale. Les corolles mesure entre 2,5 et 4 cm de long[1]. Elles sont constituées de pétales partiellement soudés s'achevant par 5 lobes libres. De couleur jaune-verdâtre, elles sont souvent mouchetée de violacé ou de couleur rouille.
-Le fruit est une capsule d'environ 6 cm de long, prolongée par une corne incurvée ; l'ensemble peut atteindre plus de 12 cm de long. A maturité, cette capsule s'ouvre en deux[1].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette plante aux tiges rampantes ne s'élève guère au-dessus de 30 cm de hauteur, mais les tiges peuvent courir sur 90 cm au sol. Les feuilles, aux longs pétioles, ont un limbe mesurant entre 2 et 7,5 cm de long. Elles sont charnues, arrondies, et leur marge peut être entière, festonnée ou lobée.
 </t>
         </is>
       </c>
@@ -544,10 +557,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description morphologique</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison a lieu entre juin et septembre. 
+L'inflorescence est une grappe de quelques fleurs jaune-verdâtre disposées en symétrie bilatérale. Les corolles mesure entre 2,5 et 4 cm de long. Elles sont constituées de pétales partiellement soudés s'achevant par 5 lobes libres. De couleur jaune-verdâtre, elles sont souvent mouchetée de violacé ou de couleur rouille.
+Le fruit est une capsule d'environ 6 cm de long, prolongée par une corne incurvée ; l'ensemble peut atteindre plus de 12 cm de long. A maturité, cette capsule s'ouvre en deux.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Proboscidea_althaeifolia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Proboscidea_althaeifolia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Répartition et habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle pousse sur sol sablonneux dans les plaines arides et les déserts du sud-ouest des États-Unis, du sud de la Californie à l'ouest du Texas.
 </t>
